--- a/Second semester/neural network/HW1/lbl1.xlsx
+++ b/Second semester/neural network/HW1/lbl1.xlsx
@@ -1274,22 +1274,22 @@
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:1">
@@ -1469,7 +1469,7 @@
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:1">
@@ -1604,7 +1604,7 @@
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:1">
@@ -1649,7 +1649,7 @@
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:1">
@@ -1679,7 +1679,7 @@
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:1">
@@ -1694,7 +1694,7 @@
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:1">
@@ -1784,7 +1784,7 @@
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:1">
@@ -1879,7 +1879,7 @@
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:1">
@@ -2154,7 +2154,7 @@
     </row>
     <row r="357" spans="1:1">
       <c r="A357">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:1">
@@ -2224,22 +2224,22 @@
     </row>
     <row r="371" spans="1:1">
       <c r="A371">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:1">
@@ -2249,17 +2249,17 @@
     </row>
     <row r="376" spans="1:1">
       <c r="A376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:1">
@@ -2269,7 +2269,7 @@
     </row>
     <row r="380" spans="1:1">
       <c r="A380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:1">
@@ -2629,7 +2629,7 @@
     </row>
     <row r="452" spans="1:1">
       <c r="A452">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:1">
@@ -5554,7 +5554,7 @@
     </row>
     <row r="1037" spans="1:1">
       <c r="A1037">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1038" spans="1:1">
@@ -6379,7 +6379,7 @@
     </row>
     <row r="1202" spans="1:1">
       <c r="A1202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1203" spans="1:1">
@@ -7909,7 +7909,7 @@
     </row>
     <row r="1508" spans="1:1">
       <c r="A1508">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1509" spans="1:1">
